--- a/data/trans_dic/P14B34-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B34-Estudios-trans_dic.xlsx
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.02429100759278987</v>
+        <v>0.02443585767426444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01723879771874721</v>
+        <v>0.01746569770610273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02260057086761679</v>
+        <v>0.02283563690488234</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.04906335972697167</v>
+        <v>0.04891114742344448</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03846988478650747</v>
+        <v>0.03968581267329693</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04662258934190605</v>
+        <v>0.04544960517763785</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0.007376812245071076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.005598084623398598</v>
+        <v>0.005598084623398599</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.006541683555970314</v>
+        <v>0.006931991704894829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004073125355069132</v>
+        <v>0.00429947923015934</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003303597054936433</v>
+        <v>0.003238513655574573</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01601038548244504</v>
+        <v>0.01631852762843098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01230142391399428</v>
+        <v>0.01231563972064114</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.009006898260850636</v>
+        <v>0.008898630824717785</v>
       </c>
     </row>
     <row r="10">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002368816619891801</v>
+        <v>0.001904199682129679</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02432026204488699</v>
+        <v>0.02805923936559832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01719432769109048</v>
+        <v>0.01688085024200793</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01611301156511046</v>
+        <v>0.01471265747380655</v>
       </c>
     </row>
     <row r="13">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.01285522930615343</v>
+        <v>0.01273673045783022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007754889563747468</v>
+        <v>0.00806118690760978</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007303709221923789</v>
+        <v>0.007881336529321235</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.02190063727770171</v>
+        <v>0.02226599744923535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01529320174828404</v>
+        <v>0.01529839779301349</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01324724251574133</v>
+        <v>0.01340634618220457</v>
       </c>
     </row>
     <row r="16">
@@ -966,13 +966,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>23622</v>
+        <v>23763</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13004</v>
+        <v>13175</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12997</v>
+        <v>13132</v>
       </c>
     </row>
     <row r="7">
@@ -984,13 +984,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>47712</v>
+        <v>47564</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29020</v>
+        <v>29937</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26811</v>
+        <v>26137</v>
       </c>
     </row>
     <row r="8">
@@ -1046,13 +1046,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>12841</v>
+        <v>13607</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8457</v>
+        <v>8927</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7329</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="11">
@@ -1064,13 +1064,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>31427</v>
+        <v>32032</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25542</v>
+        <v>25572</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19982</v>
+        <v>19742</v>
       </c>
     </row>
     <row r="12">
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1672</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="15">
@@ -1144,13 +1144,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11702</v>
+        <v>13502</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9403</v>
+        <v>9232</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11372</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="16">
@@ -1206,13 +1206,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>43920</v>
+        <v>43516</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26193</v>
+        <v>27228</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25558</v>
+        <v>27579</v>
       </c>
     </row>
     <row r="19">
@@ -1224,13 +1224,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>74824</v>
+        <v>76073</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>51655</v>
+        <v>51672</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46356</v>
+        <v>46913</v>
       </c>
     </row>
     <row r="20">
